--- a/Utility.xlsx
+++ b/Utility.xlsx
@@ -13,12 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="3" r:id="rId1"/>
-    <sheet name="List of Files" sheetId="6" r:id="rId2"/>
-    <sheet name="DB Config file Structure" sheetId="5" r:id="rId3"/>
-    <sheet name="File Format" sheetId="7" r:id="rId4"/>
-    <sheet name="SSIS Config file Structure" sheetId="4" r:id="rId5"/>
-    <sheet name="Approach - MK" sheetId="2" r:id="rId6"/>
-    <sheet name="Details" sheetId="1" r:id="rId7"/>
+    <sheet name="Req" sheetId="9" r:id="rId2"/>
+    <sheet name="File Format" sheetId="7" r:id="rId3"/>
+    <sheet name="DB Connetions" sheetId="6" r:id="rId4"/>
+    <sheet name="DB Parameter File" sheetId="11" r:id="rId5"/>
+    <sheet name="DB Config file Structure" sheetId="5" r:id="rId6"/>
+    <sheet name="SSIS Config file Structure" sheetId="4" r:id="rId7"/>
+    <sheet name="Approach - MK" sheetId="2" r:id="rId8"/>
+    <sheet name="Details" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="171">
   <si>
     <t>Env</t>
   </si>
@@ -185,21 +187,9 @@
 GO  </t>
   </si>
   <si>
-    <t>SP, Views, DDL, DML, Function, TableTypes, Synonyms</t>
-  </si>
-  <si>
-    <t>Sample DB file</t>
-  </si>
-  <si>
-    <t>Sample SSIS file</t>
-  </si>
-  <si>
     <t>DEV DB Connections</t>
   </si>
   <si>
-    <t>||</t>
-  </si>
-  <si>
     <t>.sql</t>
   </si>
   <si>
@@ -219,20 +209,381 @@
   </si>
   <si>
     <t>Object Type</t>
+  </si>
+  <si>
+    <t>Case insentitive</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>10.84.81.3\SQLDB0003DEV,1102</t>
+  </si>
+  <si>
+    <t>d2wg10390\SQLDB0003DEV,1102</t>
+  </si>
+  <si>
+    <t>i2wg11981\SQLDB0003ITG,1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.84.81.13\SQLDB0003ITG,1103 </t>
+  </si>
+  <si>
+    <t>ITG DB Connections</t>
+  </si>
+  <si>
+    <t>Data Source=10.84.81.3\SQLDB0003DEV,1102;Initial Catalog=HPFSIDS;Provider=SQLNCLI11.1;Integrated Security=SSPI;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>Data Source=i2wg11981.dc02.its.hpecorp.net,1103;Initial Catalog=HPFSIDSI;Provider=SQLNCLI11.1;User ID=DMUsr01;Password=WIPROusr02UAT21!;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>              Data Source=i2wg101854.dc02.its.hpecorp.net,1141;Initial Catalog=HPFSIDSQ;Provider=SQLNCLI11.1;User ID=DMUsr01;Password=WIPROusr02UAT21!;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>              Data Source=10.84.81.3\SQLDB0003DEV,1102;Initial Catalog=HPFSIDS;Provider=SQLNCLI11.1;Integrated Security=SSPI;Auto Translate=False;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dev DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:- Use individual windows credentials to test the bot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ITG DB Connectivit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y:- Use Tidal User windows credentials  to test the bot on ITG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STG DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:- Use Tidal User windows credentials to test the bot on STG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROD DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- Use individual windows credentials to test the bot on PROD. Prod Tidal User windows credentials  are not available with us. </t>
+    </r>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Table Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail </t>
+  </si>
+  <si>
+    <t>SP, Function, Synonyms</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>GO
+GRANT EXECUTE ON type::&lt;Object_Name&gt;  TO DMUsr01
+go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO  
+GRANT EXECUTE ON  &lt;Object_Name&gt; TO [DMUSR01]   
+GO  </t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Rollback, DDL, DML (MASTER_IDS_DDL.sql, MASTER_IDS_DMLsql)</t>
+  </si>
+  <si>
+    <t>S.No`</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Object If Exist</t>
+  </si>
+  <si>
+    <t>STORED PROCEDURE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>VIEWS</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>SYNONYM</t>
+  </si>
+  <si>
+    <t>CREATE SYNONYM &lt;Object Name&gt; FOR</t>
+  </si>
+  <si>
+    <t>CREATE VIEWS &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION &lt;Object Name&gt; (</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE &lt;Object Name&gt; ( or AS</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1 file per object</t>
+  </si>
+  <si>
+    <t>1 file for All object</t>
+  </si>
+  <si>
+    <t>Extract DB Object structure from DB</t>
+  </si>
+  <si>
+    <t>DB Object Type</t>
+  </si>
+  <si>
+    <t>DB Object Name</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>TableType</t>
+  </si>
+  <si>
+    <t>DBO.REPORT_IDS_ACTIVE_ASSET_SMRY</t>
+  </si>
+  <si>
+    <t>AZR.AUSAssetList</t>
+  </si>
+  <si>
+    <t>dbo.LOAD_CP_OPEN_CLOSED_INVOICES</t>
+  </si>
+  <si>
+    <t>DBO.CYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatahubPMR.GET_ASSET_RAW_DETAILS  </t>
+  </si>
+  <si>
+    <t>dbo.v_CDFASSETS</t>
+  </si>
+  <si>
+    <t>DBO.v_PMRCheck</t>
+  </si>
+  <si>
+    <t>DBO.ErrorLog</t>
+  </si>
+  <si>
+    <t>DBO.ASSETTABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 file </t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Object name</t>
+  </si>
+  <si>
+    <t>Master_IDS_DDL.sql</t>
+  </si>
+  <si>
+    <t>Object IF Exist Condition</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>IF  EXISTS (SELECT * FROM sys.views WHERE object_id = OBJECT_ID(N'DatahubPMR.v_ASSET_RAW_PRODUCTS'))
+BEGIN
+DROP VIEW DatahubPMR.v_ASSET_RAW_PRODUCTS
+END
+GO</t>
+  </si>
+  <si>
+    <t>IF EXISTS(SELECT * FROM Information_schema.Routines WHERE Specific_schema = 'DBO' AND specific_name = 'GetContentGuid' AND Routine_Type = 'FUNCTION') 
+ BEGIN 
+  DROP FUNCTION dbo.GetContentGuid
+ END
+GO</t>
+  </si>
+  <si>
+    <t>IF EXISTS (SELECT * FROM sys.synonyms WHERE name = N'Load_AUS_ASET' AND schema_id = SCHEMA_ID(N'AZR'))
+begin
+drop SYNONYM [AZR].[Load_AUS_ASET]
+end
+GO</t>
+  </si>
+  <si>
+    <t>PRINT 'Start Executing : MASTER_IDS_DDL.SQL' 
+-----------------Start File-----MASTER_IDS_DDL.SQL-----------------
+IF EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'[DBO].[REPORT_IDS_ACTIVE_ASSET]') AND TYPE IN (N'U'))
+BEGIN
+--DROP TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET]
+ PRINT '&gt;&gt; CUSTOMER PORTAL : TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET] EXISTS &gt;&gt;'
+END
+IF NOT EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'[DBO].[REPORT_IDS_ACTIVE_ASSET]') AND TYPE IN (N'U'))
+BEGIN
+..
+..
+..
+..
+ PRINT '&gt;&gt; CUSTOMER PORTAL : TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET] CREATED &gt;&gt;'
+END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF  EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'DBO.LOAD_INV_CP_REPORTTABLES') AND TYPE IN (N'P', N'PC'))
+BEGIN
+DROP PROCEDURE DBO.LOAD_INV_CP_REPORTTABLES    
+END
+GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes 
+</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>if MASTER_IDS_DML.sql is found within the input file then</t>
+  </si>
+  <si>
+    <t>check If folder "ddldml" folder exist then copy the input file (MASTER_IDS_DML.sql)  to the folder ddldm </t>
+  </si>
+  <si>
+    <t>if folder "ddldml" folder does not exist then create the folder and copy the MASTER_IDS_DML file</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>if MASTER_IDS_DDL.sql is found within the input file then</t>
+  </si>
+  <si>
+    <t>check if the same file name is present in folder - ddldml</t>
+  </si>
+  <si>
+    <t>if the same name file is found then</t>
+  </si>
+  <si>
+    <t>Copy all the content of provided input file (MASTER_IDS_DDL.sql ) to the main folder(ddldml) - file (MASTER_IDS_DDL.sql) at the end</t>
+  </si>
+  <si>
+    <t>else copy the input file (MASTER_IDS_DDL.sql)  to the folder ddldml </t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>SQL Beautifier - Table</t>
+  </si>
+  <si>
+    <t>TABLETYPES</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. Validate the Header and Tailor 
-2. Check the syntax error for DB script
-2. Deploy the object again in DB - DEV</t>
+      <t>1. Include the Header and Tailor in DB file
+2. Create the file as per GIT 
+3. Replace any specific condition in DB file as per env</t>
     </r>
     <r>
       <rPr>
@@ -243,10 +594,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3. Replace variable with respect to higher environment (with a parameter)
-4. Validate the files with repect to Jenkin's standard
-5. Replace the connections with respect to higher env - SSIS
-</t>
+4. Replace variable with respect to higher environment (with a parameter)
+5. Validate the files with repect to Jenkin's standard
+6. Replace the connections with respect to higher env - SSIS
+7</t>
     </r>
     <r>
       <rPr>
@@ -257,60 +608,116 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6. Create logs as part of the script activity (1 day)</t>
+      <t xml:space="preserve">. </t>
     </r>
-  </si>
-  <si>
-    <t>Case insentitive</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>IF  EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'&lt;DBO.LOAD_CP_OPEN_CLOSED_INVOICES&gt;') AND TYPE IN (N'P', N'PC'))</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP PROCEDURE &lt;DBO.LOAD_CP_OPEN_CLOSED_INVOICES&gt;    </t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  GRANT EXECUTE ON &lt;[DBO].[LOAD_CP_OPEN_CLOSED_INVOICES]&gt; TO DMUSR01</t>
-  </si>
-  <si>
-    <t>Pipe separated Config file</t>
-  </si>
-  <si>
-    <t>Standard format of DB file</t>
-  </si>
-  <si>
-    <t>10.84.81.3\SQLDB0003DEV,1102</t>
-  </si>
-  <si>
-    <t>d2wg10390\SQLDB0003DEV,1102</t>
-  </si>
-  <si>
-    <t>i2wg11981\SQLDB0003ITG,1103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.84.81.13\SQLDB0003ITG,1103 </t>
-  </si>
-  <si>
-    <t>ITG DB Connections</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create logs as part of the script activity (1 day)</t>
+    </r>
+  </si>
+  <si>
+    <t>Parameter file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel </t>
+  </si>
+  <si>
+    <t>Config File</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>MASTER_IDS_DML.sql</t>
+  </si>
+  <si>
+    <t>Master_IDS_DML.sql</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>TableTypes</t>
+  </si>
+  <si>
+    <t>Procs</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>ddldml</t>
+  </si>
+  <si>
+    <t>Rollback</t>
+  </si>
+  <si>
+    <t>Master_IDS_Rollback.sql</t>
+  </si>
+  <si>
+    <t>Adhoc File</t>
+  </si>
+  <si>
+    <t>1 file</t>
+  </si>
+  <si>
+    <t>*fix*</t>
+  </si>
+  <si>
+    <t>One Time Run - ONLY</t>
+  </si>
+  <si>
+    <t>all files</t>
+  </si>
+  <si>
+    <t>*fix*.sql</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Data fix script</t>
+  </si>
+  <si>
+    <t>SQL file (Data Fix)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>CREATE TABLETYPES &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>File name Case Sensitive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +756,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +825,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -399,17 +861,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,15 +1148,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,14 +1215,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -467,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1828800" y="1123950"/>
-          <a:ext cx="641350" cy="0"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -495,13 +1262,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -542,13 +1309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -589,26 +1356,186 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1720850"/>
+          <a:ext cx="260350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1765300"/>
-          <a:ext cx="615950" cy="0"/>
+          <a:off x="3657600" y="1123950"/>
+          <a:ext cx="1822450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356350" y="1250950"/>
+          <a:ext cx="692150" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GIT Checkin </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083300" y="1714500"/>
+          <a:ext cx="273050" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -900,138 +1827,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="4" t="s">
+    <row r="3" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="L5" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="E3:G17"/>
-    <mergeCell ref="I5:I16"/>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G3:I17"/>
+    <mergeCell ref="L5:L16"/>
+    <mergeCell ref="D5:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1040,10 +2002,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,230 +2449,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>51</v>
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
+      <c r="C2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.81640625" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,113 +2536,754 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
+    <col min="3" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1399,7 +3292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1411,12 +3304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1430,25 +3323,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Utility.xlsx
+++ b/Utility.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (eClerx Services Ltd.)\HPEFS Data Management\Customer Portal\Development\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610" tabRatio="699"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="3" r:id="rId1"/>
@@ -22,9 +17,10 @@
     <sheet name="Approach - MK" sheetId="2" r:id="rId8"/>
     <sheet name="Details" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="195">
   <si>
     <t>Env</t>
   </si>
@@ -712,12 +708,145 @@
   <si>
     <t>File name Case Sensitive</t>
   </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t>Script Initialization</t>
+  </si>
+  <si>
+    <t>Identifying SQL Files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The script starts by identifying the folder where it is running. This is stored in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>base_directory.                                                              2. Set the path for the Parameter.xlsx file, which contains processing rules for SQL files.                                                                           3. Create a log file in a dedicated log folder using the create_log_folder() function to capture all actions and steps during script execution.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scan the base directory for all files with the .sql extension.                2. Store the full paths of these SQL files in a list (sql_file_paths) to be processed according to the rules in Parameter.xlsx.           </t>
+  </si>
+  <si>
+    <t>Reading the Parameter Excel File (Parameter.xlsx)</t>
+  </si>
+  <si>
+    <t>1.Load the Parameter.xlsx file, which contains columns like DB Object Name, Folder, and DB Object Type.                                                     2.Iterate through the rows of this file to extract necessary details for each SQL object.</t>
+  </si>
+  <si>
+    <t>Processing SQL Files Based on Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.For each SQL file, based on the object type (e.g., Procedure, View, Function, Synonym, Table), the script applies appropriate handling steps :    Head,  Pattern and Tail                                                                                                            2.Each object type is handled with specific patterns, ensuring that they are processed according to their nature and requirements.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Handling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MASTER_IDS_DML.sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Files</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Folder Handling: Ensure the ddldml folder exists. If not, create it.   2.File Creation:If the script finds MASTER_IDS_DML.sql, copy the file to the ddldml folder.                                                                                        3.If MASTER_IDS_DML.sql already exists in the ddldml folder, append new content.                                                                                                   4.Ensure that the appropriate header is included if it's missing.</t>
+  </si>
+  <si>
+    <t>Processing Rollback Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Identify files classified as Rollback from the Parameter.xlsx.                   2.Folder Creation: Based on the Folder column from the Excel sheet, place rollback files into their respective folders.
+3.Header Handling: Add the appropriate header to each rollback file if it’s missing at the top.
+</t>
+  </si>
+  <si>
+    <t>Processing Procedure Files</t>
+  </si>
+  <si>
+    <t>1.Identify SQL files of type Procedure from the Parameter.xlsx.
+2.Apply any necessary modifications or formatting as per the provided rules.
+3.Ensure the proper folder structure is maintained, and the SQL files are saved in the correct folders with required headers and formatting.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processing SQL Files for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table and Handling MASTER_IDS_DDL.sql Files</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The ddldml folder is created inside the base directory if it doesn't already exist. All SQL files related to 'Table' objects will be appended to a file within this folder.                                                                       2.The script first checks if the MASTER_IDS_DDL.sql file already exists in the ddldml folder. If it doesn't, the script marks that it needs to add a header (/*DBTYPE:SQLSERVER|TARGETDB:HPFSIDS*/) to the file, which will only be added once.                                                                                                                       3.The parameter file (Parameter.xlsx) is loaded into a pandas DataFrame, which contains columns like DB Object Type and DB Object Name. The script filters for rows where the object type is 'Table'.                                                                                                                                             4.Append Pattern for Each Table.                                                                           5.The corresponding SQL file for the table is read and beautified using the sqlparse library.                                                                                                6. The corresponding SQL file for the table is read and beautified using the sqlparse library.                                                                                                7.The script logs the successful addition of each table's content, as well as any missing SQL files. This ensures that the process is traceable, and any issues can be investigated later using the log file.                                                                                                                                         8. Append Existing MASTER_IDS_DDL.sql from Base Directory: If a MASTER_IDS_DDL.sql file exists in the base directory (outside the ddldml folder), the script appends its c   </t>
+  </si>
+  <si>
+    <t>Logging Each Action</t>
+  </si>
+  <si>
+    <t>1.File creation or appending actions.                                                                              2.Folder creation and movement of files.                                                                   3.SQL formatting and any changes made to the file.                                       4.All actions are recorded in a log file for auditing and debugging purposes.</t>
+  </si>
+  <si>
+    <r>
+      <t>Error Handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>1.If any issue occurs (e.g., missing files or folder creation failures), errors are caught and logged, ensuring the script continues running without interruption.                                                                                                 2.The script ensures that processing proceeds even if minor issues occur, reducing the risk of complete failure.</t>
+  </si>
+  <si>
+    <t>Finalization and Completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.After processing all the SQL files according to the Excel rules, the script concludes its operations.                                                                                  2. SQL files are saved in their appropriate folders, fully formatted, and modified as needed.                                                                                            3.The final log file provides a detailed overview of all the actions taken, allowing for easy review and verification.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +928,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1103,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1281,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,7 +1306,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,33 +1333,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1607,7 +1768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1642,7 +1803,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1819,141 +1980,141 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="25" t="s">
+    <row r="3" spans="2:12" ht="14.45" customHeight="1">
+      <c r="G3" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D5" s="27" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.45" customHeight="1">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="L5" s="24" t="s">
+      <c r="E5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="L5" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="33"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="34"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="22" t="s">
         <v>149</v>
       </c>
@@ -1964,7 +2125,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
         <v>141</v>
       </c>
@@ -1975,7 +2136,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
         <v>143</v>
       </c>
@@ -2001,25 +2162,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
         <v>165</v>
       </c>
@@ -2042,7 +2203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2065,7 +2226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2088,7 +2249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2111,7 +2272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2134,7 +2295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2157,7 +2318,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2178,7 +2339,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2199,7 +2360,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2220,7 +2381,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2241,7 +2402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2264,14 +2425,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
@@ -2282,7 +2443,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="18" t="s">
         <v>128</v>
       </c>
@@ -2293,7 +2454,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="18" t="s">
         <v>129</v>
       </c>
@@ -2304,7 +2465,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
@@ -2315,32 +2476,32 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" s="18" t="s">
         <v>136</v>
       </c>
@@ -2352,21 +2513,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -2380,7 +2541,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2394,7 +2555,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2406,7 +2567,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2418,7 +2579,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,19 +2597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -2456,12 +2617,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="C2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -2469,64 +2630,64 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="6"/>
     </row>
   </sheetData>
@@ -2535,319 +2696,319 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" customWidth="1"/>
-    <col min="3" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
+      <c r="C12" s="42"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="40" t="s">
+      <c r="C13" s="43"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2863,25 +3024,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
+    <sheetView topLeftCell="W1" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="48.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
@@ -2907,7 +3068,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="90">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2933,7 +3094,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="90">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2959,7 +3120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="105">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2985,7 +3146,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="90">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3011,7 +3172,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="345">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3035,7 +3196,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -3049,7 +3210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -3061,7 +3222,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -3073,7 +3234,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -3085,7 +3246,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="60">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -3097,7 +3258,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="9" t="s">
         <v>75</v>
       </c>
@@ -3109,53 +3270,53 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" s="8"/>
     </row>
   </sheetData>
@@ -3167,22 +3328,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -3199,7 +3360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3214,7 +3375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -3229,7 +3390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -3244,7 +3405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>40</v>
@@ -3259,7 +3420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>31</v>
@@ -3272,7 +3433,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -3293,36 +3454,181 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="105.75">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="210">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105">
+      <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="47.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3368,7 +3674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3381,7 +3687,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3700,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3407,7 +3713,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3416,7 +3722,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3425,7 +3731,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3434,7 +3740,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3443,7 +3749,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>

--- a/Utility.xlsx
+++ b/Utility.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (eClerx Services Ltd.)\HPEFS Data Management\Customer Portal\Development\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish.kumar22.c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6610" tabRatio="699"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615" tabRatio="699" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Concept" sheetId="3" r:id="rId1"/>
-    <sheet name="List of Files" sheetId="6" r:id="rId2"/>
-    <sheet name="DB Config file Structure" sheetId="5" r:id="rId3"/>
-    <sheet name="File Format" sheetId="7" r:id="rId4"/>
-    <sheet name="SSIS Config file Structure" sheetId="4" r:id="rId5"/>
-    <sheet name="Approach - MK" sheetId="2" r:id="rId6"/>
-    <sheet name="Details" sheetId="1" r:id="rId7"/>
+    <sheet name="Req" sheetId="9" r:id="rId2"/>
+    <sheet name="File Format" sheetId="7" r:id="rId3"/>
+    <sheet name="DB Connetions" sheetId="6" r:id="rId4"/>
+    <sheet name="DB Parameter File" sheetId="11" r:id="rId5"/>
+    <sheet name="DB Config file Structure" sheetId="5" r:id="rId6"/>
+    <sheet name="SSIS Config file Structure" sheetId="4" r:id="rId7"/>
+    <sheet name="Approach - MK" sheetId="2" r:id="rId8"/>
+    <sheet name="GIT Approach-MK" sheetId="12" r:id="rId9"/>
+    <sheet name="Details" sheetId="1" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
   <si>
     <t>Env</t>
   </si>
@@ -185,21 +188,9 @@
 GO  </t>
   </si>
   <si>
-    <t>SP, Views, DDL, DML, Function, TableTypes, Synonyms</t>
-  </si>
-  <si>
-    <t>Sample DB file</t>
-  </si>
-  <si>
-    <t>Sample SSIS file</t>
-  </si>
-  <si>
     <t>DEV DB Connections</t>
   </si>
   <si>
-    <t>||</t>
-  </si>
-  <si>
     <t>.sql</t>
   </si>
   <si>
@@ -219,20 +210,381 @@
   </si>
   <si>
     <t>Object Type</t>
+  </si>
+  <si>
+    <t>Case insentitive</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>10.84.81.3\SQLDB0003DEV,1102</t>
+  </si>
+  <si>
+    <t>d2wg10390\SQLDB0003DEV,1102</t>
+  </si>
+  <si>
+    <t>i2wg11981\SQLDB0003ITG,1103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.84.81.13\SQLDB0003ITG,1103 </t>
+  </si>
+  <si>
+    <t>ITG DB Connections</t>
+  </si>
+  <si>
+    <t>Data Source=10.84.81.3\SQLDB0003DEV,1102;Initial Catalog=HPFSIDS;Provider=SQLNCLI11.1;Integrated Security=SSPI;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>Data Source=i2wg11981.dc02.its.hpecorp.net,1103;Initial Catalog=HPFSIDSI;Provider=SQLNCLI11.1;User ID=DMUsr01;Password=WIPROusr02UAT21!;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>              Data Source=i2wg101854.dc02.its.hpecorp.net,1141;Initial Catalog=HPFSIDSQ;Provider=SQLNCLI11.1;User ID=DMUsr01;Password=WIPROusr02UAT21!;Auto Translate=False;</t>
+  </si>
+  <si>
+    <t>              Data Source=10.84.81.3\SQLDB0003DEV,1102;Initial Catalog=HPFSIDS;Provider=SQLNCLI11.1;Integrated Security=SSPI;Auto Translate=False;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dev DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:- Use individual windows credentials to test the bot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ITG DB Connectivit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y:- Use Tidal User windows credentials  to test the bot on ITG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STG DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:- Use Tidal User windows credentials to test the bot on STG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROD DB Connectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- Use individual windows credentials to test the bot on PROD. Prod Tidal User windows credentials  are not available with us. </t>
+    </r>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Table Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail </t>
+  </si>
+  <si>
+    <t>SP, Function, Synonyms</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>GO
+GRANT EXECUTE ON type::&lt;Object_Name&gt;  TO DMUsr01
+go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO  
+GRANT EXECUTE ON  &lt;Object_Name&gt; TO [DMUSR01]   
+GO  </t>
+  </si>
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Rollback, DDL, DML (MASTER_IDS_DDL.sql, MASTER_IDS_DMLsql)</t>
+  </si>
+  <si>
+    <t>S.No`</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Object If Exist</t>
+  </si>
+  <si>
+    <t>STORED PROCEDURE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>VIEWS</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>SYNONYM</t>
+  </si>
+  <si>
+    <t>CREATE SYNONYM &lt;Object Name&gt; FOR</t>
+  </si>
+  <si>
+    <t>CREATE VIEWS &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>CREATE FUNCTION &lt;Object Name&gt; (</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE &lt;Object Name&gt; ( or AS</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1 file per object</t>
+  </si>
+  <si>
+    <t>1 file for All object</t>
+  </si>
+  <si>
+    <t>Extract DB Object structure from DB</t>
+  </si>
+  <si>
+    <t>DB Object Type</t>
+  </si>
+  <si>
+    <t>DB Object Name</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>TableType</t>
+  </si>
+  <si>
+    <t>DBO.REPORT_IDS_ACTIVE_ASSET_SMRY</t>
+  </si>
+  <si>
+    <t>AZR.AUSAssetList</t>
+  </si>
+  <si>
+    <t>dbo.LOAD_CP_OPEN_CLOSED_INVOICES</t>
+  </si>
+  <si>
+    <t>DBO.CYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatahubPMR.GET_ASSET_RAW_DETAILS  </t>
+  </si>
+  <si>
+    <t>dbo.v_CDFASSETS</t>
+  </si>
+  <si>
+    <t>DBO.v_PMRCheck</t>
+  </si>
+  <si>
+    <t>DBO.ErrorLog</t>
+  </si>
+  <si>
+    <t>DBO.ASSETTABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 file </t>
+  </si>
+  <si>
+    <t>File name</t>
+  </si>
+  <si>
+    <t>Object name</t>
+  </si>
+  <si>
+    <t>Master_IDS_DDL.sql</t>
+  </si>
+  <si>
+    <t>Object IF Exist Condition</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>IF  EXISTS (SELECT * FROM sys.views WHERE object_id = OBJECT_ID(N'DatahubPMR.v_ASSET_RAW_PRODUCTS'))
+BEGIN
+DROP VIEW DatahubPMR.v_ASSET_RAW_PRODUCTS
+END
+GO</t>
+  </si>
+  <si>
+    <t>IF EXISTS(SELECT * FROM Information_schema.Routines WHERE Specific_schema = 'DBO' AND specific_name = 'GetContentGuid' AND Routine_Type = 'FUNCTION') 
+ BEGIN 
+  DROP FUNCTION dbo.GetContentGuid
+ END
+GO</t>
+  </si>
+  <si>
+    <t>IF EXISTS (SELECT * FROM sys.synonyms WHERE name = N'Load_AUS_ASET' AND schema_id = SCHEMA_ID(N'AZR'))
+begin
+drop SYNONYM [AZR].[Load_AUS_ASET]
+end
+GO</t>
+  </si>
+  <si>
+    <t>PRINT 'Start Executing : MASTER_IDS_DDL.SQL' 
+-----------------Start File-----MASTER_IDS_DDL.SQL-----------------
+IF EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'[DBO].[REPORT_IDS_ACTIVE_ASSET]') AND TYPE IN (N'U'))
+BEGIN
+--DROP TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET]
+ PRINT '&gt;&gt; CUSTOMER PORTAL : TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET] EXISTS &gt;&gt;'
+END
+IF NOT EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'[DBO].[REPORT_IDS_ACTIVE_ASSET]') AND TYPE IN (N'U'))
+BEGIN
+..
+..
+..
+..
+ PRINT '&gt;&gt; CUSTOMER PORTAL : TABLE [DBO].[REPORT_IDS_ACTIVE_ASSET] CREATED &gt;&gt;'
+END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF  EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'DBO.LOAD_INV_CP_REPORTTABLES') AND TYPE IN (N'P', N'PC'))
+BEGIN
+DROP PROCEDURE DBO.LOAD_INV_CP_REPORTTABLES    
+END
+GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes 
+</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>if MASTER_IDS_DML.sql is found within the input file then</t>
+  </si>
+  <si>
+    <t>check If folder "ddldml" folder exist then copy the input file (MASTER_IDS_DML.sql)  to the folder ddldm </t>
+  </si>
+  <si>
+    <t>if folder "ddldml" folder does not exist then create the folder and copy the MASTER_IDS_DML file</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>if MASTER_IDS_DDL.sql is found within the input file then</t>
+  </si>
+  <si>
+    <t>check if the same file name is present in folder - ddldml</t>
+  </si>
+  <si>
+    <t>if the same name file is found then</t>
+  </si>
+  <si>
+    <t>Copy all the content of provided input file (MASTER_IDS_DDL.sql ) to the main folder(ddldml) - file (MASTER_IDS_DDL.sql) at the end</t>
+  </si>
+  <si>
+    <t>else copy the input file (MASTER_IDS_DDL.sql)  to the folder ddldml </t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>SQL Beautifier - Table</t>
+  </si>
+  <si>
+    <t>TABLETYPES</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. Validate the Header and Tailor 
-2. Check the syntax error for DB script
-2. Deploy the object again in DB - DEV</t>
+      <t>1. Include the Header and Tailor in DB file
+2. Create the file as per GIT 
+3. Replace any specific condition in DB file as per env</t>
     </r>
     <r>
       <rPr>
@@ -243,10 +595,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3. Replace variable with respect to higher environment (with a parameter)
-4. Validate the files with repect to Jenkin's standard
-5. Replace the connections with respect to higher env - SSIS
-</t>
+4. Replace variable with respect to higher environment (with a parameter)
+5. Validate the files with repect to Jenkin's standard
+6. Replace the connections with respect to higher env - SSIS
+7</t>
     </r>
     <r>
       <rPr>
@@ -257,60 +609,397 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6. Create logs as part of the script activity (1 day)</t>
+      <t xml:space="preserve">. </t>
     </r>
-  </si>
-  <si>
-    <t>Case insentitive</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>IF  EXISTS (SELECT * FROM SYS.OBJECTS WHERE OBJECT_ID = OBJECT_ID(N'&lt;DBO.LOAD_CP_OPEN_CLOSED_INVOICES&gt;') AND TYPE IN (N'P', N'PC'))</t>
-  </si>
-  <si>
-    <t>BEGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DROP PROCEDURE &lt;DBO.LOAD_CP_OPEN_CLOSED_INVOICES&gt;    </t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  GRANT EXECUTE ON &lt;[DBO].[LOAD_CP_OPEN_CLOSED_INVOICES]&gt; TO DMUSR01</t>
-  </si>
-  <si>
-    <t>Pipe separated Config file</t>
-  </si>
-  <si>
-    <t>Standard format of DB file</t>
-  </si>
-  <si>
-    <t>10.84.81.3\SQLDB0003DEV,1102</t>
-  </si>
-  <si>
-    <t>d2wg10390\SQLDB0003DEV,1102</t>
-  </si>
-  <si>
-    <t>i2wg11981\SQLDB0003ITG,1103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.84.81.13\SQLDB0003ITG,1103 </t>
-  </si>
-  <si>
-    <t>ITG DB Connections</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create logs as part of the script activity (1 day)</t>
+    </r>
+  </si>
+  <si>
+    <t>Parameter file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel </t>
+  </si>
+  <si>
+    <t>Config File</t>
+  </si>
+  <si>
+    <t>Locked</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>MASTER_IDS_DML.sql</t>
+  </si>
+  <si>
+    <t>Master_IDS_DML.sql</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>TableTypes</t>
+  </si>
+  <si>
+    <t>Procs</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>ddldml</t>
+  </si>
+  <si>
+    <t>Rollback</t>
+  </si>
+  <si>
+    <t>Master_IDS_Rollback.sql</t>
+  </si>
+  <si>
+    <t>Adhoc File</t>
+  </si>
+  <si>
+    <t>1 file</t>
+  </si>
+  <si>
+    <t>*fix*</t>
+  </si>
+  <si>
+    <t>One Time Run - ONLY</t>
+  </si>
+  <si>
+    <t>all files</t>
+  </si>
+  <si>
+    <t>*fix*.sql</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Data fix script</t>
+  </si>
+  <si>
+    <t>SQL file (Data Fix)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>CREATE TABLETYPES &lt;Object Name&gt; AS</t>
+  </si>
+  <si>
+    <t>File name Case Sensitive</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t>Script Initialization</t>
+  </si>
+  <si>
+    <t>Identifying SQL Files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.The script starts by identifying the folder where it is running. This is stored in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>base_directory.                                                              2. Set the path for the Parameter.xlsx file, which contains processing rules for SQL files.                                                                           3. Create a log file in a dedicated log folder using the create_log_folder() function to capture all actions and steps during script execution.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Scan the base directory for all files with the .sql extension.                2. Store the full paths of these SQL files in a list (sql_file_paths) to be processed according to the rules in Parameter.xlsx.           </t>
+  </si>
+  <si>
+    <t>Reading the Parameter Excel File (Parameter.xlsx)</t>
+  </si>
+  <si>
+    <t>1.Load the Parameter.xlsx file, which contains columns like DB Object Name, Folder, and DB Object Type.                                                     2.Iterate through the rows of this file to extract necessary details for each SQL object.</t>
+  </si>
+  <si>
+    <t>Processing SQL Files Based on Object Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.For each SQL file, based on the object type (e.g., Procedure, View, Function, Synonym, Table), the script applies appropriate handling steps :    Head,  Pattern and Tail                                                                                                            2.Each object type is handled with specific patterns, ensuring that they are processed according to their nature and requirements.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Handling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MASTER_IDS_DML.sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Files</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Folder Handling: Ensure the ddldml folder exists. If not, create it.   2.File Creation:If the script finds MASTER_IDS_DML.sql, copy the file to the ddldml folder.                                                                                        3.If MASTER_IDS_DML.sql already exists in the ddldml folder, append new content.                                                                                                   4.Ensure that the appropriate header is included if it's missing.</t>
+  </si>
+  <si>
+    <t>Processing Rollback Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Identify files classified as Rollback from the Parameter.xlsx.                   2.Folder Creation: Based on the Folder column from the Excel sheet, place rollback files into their respective folders.
+3.Header Handling: Add the appropriate header to each rollback file if it’s missing at the top.
+</t>
+  </si>
+  <si>
+    <t>Processing Procedure Files</t>
+  </si>
+  <si>
+    <t>1.Identify SQL files of type Procedure from the Parameter.xlsx.
+2.Apply any necessary modifications or formatting as per the provided rules.
+3.Ensure the proper folder structure is maintained, and the SQL files are saved in the correct folders with required headers and formatting.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processing SQL Files for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Table and Handling MASTER_IDS_DDL.sql Files</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The ddldml folder is created inside the base directory if it doesn't already exist. All SQL files related to 'Table' objects will be appended to a file within this folder.                                                                       2.The script first checks if the MASTER_IDS_DDL.sql file already exists in the ddldml folder. If it doesn't, the script marks that it needs to add a header (/*DBTYPE:SQLSERVER|TARGETDB:HPFSIDS*/) to the file, which will only be added once.                                                                                                                       3.The parameter file (Parameter.xlsx) is loaded into a pandas DataFrame, which contains columns like DB Object Type and DB Object Name. The script filters for rows where the object type is 'Table'.                                                                                                                                             4.Append Pattern for Each Table.                                                                           5.The corresponding SQL file for the table is read and beautified using the sqlparse library.                                                                                                6. The corresponding SQL file for the table is read and beautified using the sqlparse library.                                                                                                7.The script logs the successful addition of each table's content, as well as any missing SQL files. This ensures that the process is traceable, and any issues can be investigated later using the log file.                                                                                                                                         8. Append Existing MASTER_IDS_DDL.sql from Base Directory: If a MASTER_IDS_DDL.sql file exists in the base directory (outside the ddldml folder), the script appends its c   </t>
+  </si>
+  <si>
+    <t>Logging Each Action</t>
+  </si>
+  <si>
+    <t>1.File creation or appending actions.                                                                              2.Folder creation and movement of files.                                                                   3.SQL formatting and any changes made to the file.                                       4.All actions are recorded in a log file for auditing and debugging purposes.</t>
+  </si>
+  <si>
+    <r>
+      <t>Error Handling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>1.If any issue occurs (e.g., missing files or folder creation failures), errors are caught and logged, ensuring the script continues running without interruption.                                                                                                 2.The script ensures that processing proceeds even if minor issues occur, reducing the risk of complete failure.</t>
+  </si>
+  <si>
+    <t>Finalization and Completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.After processing all the SQL files according to the Excel rules, the script concludes its operations.                                                                                  2. SQL files are saved in their appropriate folders, fully formatted, and modified as needed.                                                                                            3.The final log file provides a detailed overview of all the actions taken, allowing for easy review and verification.
+</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module/Library used </t>
+  </si>
+  <si>
+    <t>1. GitPython (Git)            2.Os                  3.Subprocess            4. re</t>
+  </si>
+  <si>
+    <t>Check  GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize GIT repository if not already initialized </t>
+  </si>
+  <si>
+    <r>
+      <t>1.Initialize Repo :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> git init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          2.Add remote url : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git remote add origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       3.Fetch remote branches : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git fetch origin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Feature branch based on provided release branch </t>
+  </si>
+  <si>
+    <t>Extract the fical year and quarter from the release branch name using regex, and dynamically creates the feature branch name (e.g. 'Feature_Datahub_FY25Q1').</t>
+  </si>
+  <si>
+    <t>Check if the feature branch already exists</t>
+  </si>
+  <si>
+    <t>Check if the feature branch already exists in the repository. If it exist, skip the creation process, if not then proceed with branch creation.</t>
+  </si>
+  <si>
+    <t>Create and checkout the feature branch</t>
+  </si>
+  <si>
+    <t>If the feature branch doesn't exist, the code fetches the latest release branch, checks it out, and creates a new feature branch based on it.</t>
+  </si>
+  <si>
+    <t>Push the feature branch to the remote repository</t>
+  </si>
+  <si>
+    <t>Pushes the newly created feature branch to the remote repository using 'git push'.</t>
+  </si>
+  <si>
+    <t>Clone the feature branch to a new local directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clones the feature branch into a new local directory for separate work or testing </t>
+  </si>
+  <si>
+    <t>Ask if the developer/User wants to merge the feature branchinto the release branch</t>
+  </si>
+  <si>
+    <t>Prompts the developer/user to confirm if they want to merge the feature branch into the release branch brfore proceeding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge the feature branch into the release branch </t>
+  </si>
+  <si>
+    <t>If the developer/user chooses to merge, the feature branch is merged into the release branch and changes are pushed to the remote</t>
+  </si>
+  <si>
+    <t>Handle invalid input for merge action</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wrote a new function to handle the files name ‘datafix’ (case insensitive) to the ‘One Time Run – ONLY’ folder.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If the developer/user enters an invalid response (not Y or N) , the merge is skipped. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +1038,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F497D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +1119,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -399,17 +1155,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,15 +1471,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,14 +1537,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -467,7 +1556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1828800" y="1123950"/>
-          <a:ext cx="641350" cy="0"/>
+          <a:ext cx="603250" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -495,13 +1584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -542,13 +1631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
@@ -589,26 +1678,186 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1720850"/>
+          <a:ext cx="260350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1765300"/>
-          <a:ext cx="615950" cy="0"/>
+          <a:off x="3657600" y="1123950"/>
+          <a:ext cx="1822450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356350" y="1250950"/>
+          <a:ext cx="692150" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GIT Checkin </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083300" y="1714500"/>
+          <a:ext cx="273050" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -680,7 +1929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -715,7 +1964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -900,382 +2149,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="4" t="s">
+    <row r="3" spans="2:12" ht="14.45" customHeight="1">
+      <c r="G3" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.45" customHeight="1">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="D5" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="L5" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="41"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="41"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="E3:G17"/>
-    <mergeCell ref="I5:I16"/>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G3:I17"/>
+    <mergeCell ref="L5:L16"/>
+    <mergeCell ref="D5:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.81640625" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,282 +3011,1091 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
+      <c r="F1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F11:F13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="61" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="345">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="45">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="45">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="60">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="47.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="94.5">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="360">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="105">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="36"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="36"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="36"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="36"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="36"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>